--- a/data/df.xlsx
+++ b/data/df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\OlsenKApps\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Códigos\OlsenK_SM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D13AE05-8761-4C3A-8F0B-71E8C99EE683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B5248-D4E3-4E8B-A9F2-4F19F8FE1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nome</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>+5511949588103</t>
-  </si>
-  <si>
-    <t>Zack</t>
-  </si>
-  <si>
-    <t>+5511978449130</t>
   </si>
 </sst>
 </file>
@@ -376,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,21 +408,9 @@
         <v>Oi, Victor. Ai ce me quebra em!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"Oi, "&amp;A3&amp;". Ai ce me quebra em!"</f>
-        <v>Oi, Zack. Ai ce me quebra em!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/df.xlsx
+++ b/data/df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Códigos\OlsenK_SM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B5248-D4E3-4E8B-A9F2-4F19F8FE1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC88A6-1967-4C21-8041-A705416CD1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -44,20 +44,23 @@
     <t>Número</t>
   </si>
   <si>
-    <t>Mensagem</t>
-  </si>
-  <si>
     <t>Victor</t>
   </si>
   <si>
     <t>+5511949588103</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>+5511960620553</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +68,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,10 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,47 +388,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="str">
-        <f>"Oi, "&amp;A2&amp;". Ai ce me quebra em!"</f>
-        <v>Oi, Victor. Ai ce me quebra em!</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
